--- a/biology/Botanique/Cyrtomium_falcatum/Cyrtomium_falcatum.xlsx
+++ b/biology/Botanique/Cyrtomium_falcatum/Cyrtomium_falcatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyrtomium falcatum est une espèce de fougères de la famille des Dryopteridacées.
 Elle est appelée Fougère-houx ou Aspidie en faux.
@@ -513,12 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette fougère, persistante, présente un aspect assez peu touffu.
 Les frondes peuvent mesurer jusqu'à 60 cm de long, assez coriaces, sur un court rhizome brun-clair.
 Elles sont complètement divisées en 6 à 10 paires de folioles d'une dizaine de centimètres de long sur 3 à 4 de large, ovo-lancéolés ou lancéolés, légèrement denticulés et resserrés sur le pétiole, sans espace entre deux folioles. Ils ont une disposition alterne (ceux d'un côté sont légèrement décalés par rapport à ceux du côté opposé). Leur courbure en forme de faux est à l'origine de l'épithète spécifique donnée par Linné.
-Les sores, producteurs de spores, sont bruns[1] et ronds, disposés régulièrement sur tout l'envers des folioles.
+Les sores, producteurs de spores, sont bruns et ronds, disposés régulièrement sur tout l'envers des folioles.
 </t>
         </is>
       </c>
@@ -547,10 +561,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette fougère est originaire du Japon et des régions chinoises orientales littorales de mer de Chine.
-Elle s'est largement diffusée pour son intérêt ornemental. Malgré son intégration biologique sans inconvénient reconnu actuellement, cette espèce a été classée envahissante aux États-Unis[2]
+Elle s'est largement diffusée pour son intérêt ornemental. Malgré son intégration biologique sans inconvénient reconnu actuellement, cette espèce a été classée envahissante aux États-Unis
 </t>
         </is>
       </c>
@@ -579,10 +595,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La fougère-houx est assez largement utilisée comme plante ornementale d'extérieur en France en raison de sa rusticité, son caractère persistant et décoratif. Elle compte une variété horticole très répandue : Cyrtomium falcatum 'Rochfordianum'.
-Elle est aussi connue comme plante médicinale (vermifuge) en Orient[3].
+Elle est aussi connue comme plante médicinale (vermifuge) en Orient.
 </t>
         </is>
       </c>
@@ -611,15 +629,17 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1781, Carl von Linné le Jeune décrit sous le nom de Polypodium falcatum un exemplaire de cette fougère collecté par Carl Peter Thunberg au Japon[4].
-En 1801, Olof Peter Swartz reclasse cette espèce dans le genre Aspidium : Aspidium falcatum (L.f.) Sw.[5].
-En 1836, Karel Bořivoj Presl la reclasse dans le genre Cyrtomium : Cyrtomium falcatum[6].
-En 1891, Carl Ernst Otto Kuntze le déplace dans le genre Dryopteris : Dryopteris falcata (L.f.) Kuntze[7].
-En 1899, Friedrich Ludwig Emil Diels la déplace à nouveau dans le genre Polystichum : Polystichum falcatum (L.f.) Diels[8].
-En 1947, Edwin Bingham Copeland la déplace dans le genre Phanerophlebia : Phanerophlebia falcata (L.f.) Copel.[9].
-En 1965, K. H. Shing, à la suite de Ren Chang Ching, confirme le classement de Karel Bořivoj Presl de Cyrtomium falcatum dans le genre Cyrtomium (article en référence), suivi en 1996 par George Yatskievych[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1781, Carl von Linné le Jeune décrit sous le nom de Polypodium falcatum un exemplaire de cette fougère collecté par Carl Peter Thunberg au Japon.
+En 1801, Olof Peter Swartz reclasse cette espèce dans le genre Aspidium : Aspidium falcatum (L.f.) Sw..
+En 1836, Karel Bořivoj Presl la reclasse dans le genre Cyrtomium : Cyrtomium falcatum.
+En 1891, Carl Ernst Otto Kuntze le déplace dans le genre Dryopteris : Dryopteris falcata (L.f.) Kuntze.
+En 1899, Friedrich Ludwig Emil Diels la déplace à nouveau dans le genre Polystichum : Polystichum falcatum (L.f.) Diels.
+En 1947, Edwin Bingham Copeland la déplace dans le genre Phanerophlebia : Phanerophlebia falcata (L.f.) Copel..
+En 1965, K. H. Shing, à la suite de Ren Chang Ching, confirme le classement de Karel Bořivoj Presl de Cyrtomium falcatum dans le genre Cyrtomium (article en référence), suivi en 1996 par George Yatskievych.
 Ces différents reclassements illustrent la proximité des genres Cyrtomium, Polystichum et Phanerophlebia.
 Cette espèce compte donc les synonymes suivants :
 Aspidium falcatum (L.f.) Sw.
